--- a/DynamicTDD/ConsentForm.xlsx
+++ b/DynamicTDD/ConsentForm.xlsx
@@ -497,12 +497,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -587,16 +587,16 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topRight" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="14.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="19.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="33.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="51.63"/>
@@ -605,7 +605,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="36.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="0" width="14.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="16.38"/>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
-      <c r="S7" s="16" t="b">
+      <c r="S7" s="14" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1157,7 +1157,7 @@
       <c r="M8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="16" t="s">
         <v>71</v>
       </c>
       <c r="O8" s="11" t="s">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
-      <c r="S8" s="8" t="b">
+      <c r="S8" s="17" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
